--- a/src/attributions/attributions_saliency_traj_194.xlsx
+++ b/src/attributions/attributions_saliency_traj_194.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003190109855495393</v>
+        <v>6.207008937053615e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00011423939577071</v>
+        <v>3.398270564503036e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.075911950465525e-05</v>
+        <v>8.292468919535168e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>2.041621337411925e-05</v>
+        <v>4.727871419163421e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006623816443607211</v>
+        <v>6.833236511738505e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002508323232177645</v>
+        <v>9.081532880372833e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004135390045121312</v>
+        <v>1.052007337420946e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001146239083027467</v>
+        <v>7.513963737437734e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001144620182458311</v>
+        <v>2.349533133383375e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003522976476233453</v>
+        <v>1.217608496517641e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.885536352754571e-05</v>
+        <v>3.371280035935342e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001694799721008167</v>
+        <v>3.327319973323029e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>6.310792377917096e-05</v>
+        <v>4.720859942608513e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0007001820486038923</v>
+        <v>1.560083546792157e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001600881078047678</v>
+        <v>2.962619328172877e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>5.869682354386896e-05</v>
+        <v>6.752324225089978e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.213065065210685e-05</v>
+        <v>1.435167814634042e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>3.941476461477578e-05</v>
+        <v>1.365060052194167e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001210161863127723</v>
+        <v>7.247163011925295e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>4.896646714769304e-07</v>
+        <v>1.061386228684569e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>7.111863669706509e-05</v>
+        <v>3.10315954266116e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002430230815662071</v>
+        <v>1.453660843253601e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.49464275536593e-05</v>
+        <v>1.073458042810671e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>7.607675070175901e-05</v>
+        <v>1.160010560852243e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.249139652121812e-05</v>
+        <v>8.649842584418366e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.588280065334402e-05</v>
+        <v>8.555856766179204e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001537525531603023</v>
+        <v>3.068738806177862e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001136022838181816</v>
+        <v>1.262917794520035e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.654802175238729e-05</v>
+        <v>1.034086380968802e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.63546340749599e-05</v>
+        <v>3.526949512888677e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.080729458015412e-05</v>
+        <v>7.558767720183823e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.022025627316907e-05</v>
+        <v>2.350382601434831e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.86577048629988e-05</v>
+        <v>4.907379206997575e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.69813826889731e-05</v>
+        <v>3.763723725569434e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.318341522477567e-05</v>
+        <v>3.205350367352366e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.046030416153371e-05</v>
+        <v>8.803751370578539e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.050723797874525e-05</v>
+        <v>7.812604962964542e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>9.338659765489865e-06</v>
+        <v>1.779488593456335e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.000114728172775358</v>
+        <v>1.138565835390182e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.742618229007348e-05</v>
+        <v>7.738740350760054e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.410953938029706e-05</v>
+        <v>3.335760823119926e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.580218567047268e-05</v>
+        <v>3.238922772652586e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.3850268664537e-05</v>
+        <v>1.84550151516305e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.249458238016814e-05</v>
+        <v>4.359987542557064e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.027256727567874e-05</v>
+        <v>3.592737812141422e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.525301382178441e-05</v>
+        <v>6.571033736690879e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.065044282062445e-05</v>
+        <v>9.240879990102258e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.126898496295325e-05</v>
+        <v>1.307885071355486e-07</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.284797963307938e-05</v>
+        <v>2.398257311142515e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003590630949474871</v>
+        <v>1.2307197721384e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.330605639144778e-05</v>
+        <v>8.375120160053484e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.383996853604913e-05</v>
+        <v>8.547722245566547e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0001078191344277002</v>
+        <v>1.377082753606373e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0002214631967945024</v>
+        <v>5.418987257144181e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0001972082100110129</v>
+        <v>1.33313824335346e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>9.374695946462452e-05</v>
+        <v>1.531264570076019e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.055917841265909e-05</v>
+        <v>5.355958819563966e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0001324338081758469</v>
+        <v>1.677140971878543e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0002293389843543991</v>
+        <v>3.00204669656523e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0002068583708023652</v>
+        <v>4.498960606724722e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.272100780624896e-05</v>
+        <v>1.9020264971914e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0002200908202212304</v>
+        <v>2.209852937085088e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>6.797454989282414e-05</v>
+        <v>3.102837581536733e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.5740588423796e-05</v>
+        <v>1.648244688112754e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>7.808335067238659e-05</v>
+        <v>1.929084464791231e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>5.754175072070211e-05</v>
+        <v>1.354336518488708e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.260692367097363e-05</v>
+        <v>4.301967692299513e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>7.696741522522643e-05</v>
+        <v>1.745186409607413e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.806900925468653e-05</v>
+        <v>1.351095761492616e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0002013129560509697</v>
+        <v>2.021333784796298e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.073863136814907e-05</v>
+        <v>1.014344547911605e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>8.872058242559433e-05</v>
+        <v>4.54097335023107e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001038319096551277</v>
+        <v>1.04846976682893e-05</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.674755367275793e-06</v>
+        <v>1.077661090675974e-05</v>
       </c>
       <c r="BW2" t="n">
-        <v>4.801543127541663e-06</v>
+        <v>6.49455898837914e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.162028926657513e-05</v>
+        <v>8.867767064657528e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.000193278377992101</v>
+        <v>8.696705663169269e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001015251255012117</v>
+        <v>4.403959792398382e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0001225585438078269</v>
+        <v>4.796567736775614e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>9.560075704939663e-05</v>
+        <v>2.125635546690319e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.263465623604134e-05</v>
+        <v>9.166325980913825e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>5.564227831200697e-05</v>
+        <v>8.622519089840353e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>6.598911568289623e-06</v>
+        <v>2.826956915669143e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.664190494921058e-05</v>
+        <v>1.553236188556184e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>4.676660319091752e-05</v>
+        <v>1.224386960529955e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001213873256347142</v>
+        <v>4.20571905124234e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.572107248648535e-05</v>
+        <v>5.499940925801639e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9.755089558893815e-05</v>
+        <v>2.302564553247066e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>7.985105912666768e-05</v>
+        <v>3.428687477935455e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.520116256870097e-05</v>
+        <v>6.84134022321814e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>4.959255602443591e-05</v>
+        <v>2.995180011566845e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.271832752536284e-05</v>
+        <v>7.092082796589239e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.374283237964846e-05</v>
+        <v>1.470694542149431e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0001559551019454375</v>
+        <v>1.14791309897555e-05</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001341361203230917</v>
+        <v>4.82262566947611e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.793975909298752e-05</v>
+        <v>5.650248340316466e-07</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0001268758642254397</v>
+        <v>1.777498800947797e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0002316795289516449</v>
+        <v>2.012522236327641e-05</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.051531555480324e-05</v>
+        <v>1.351135961158434e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.295896749477834e-05</v>
+        <v>9.503091860096902e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.00785109680146e-06</v>
+        <v>3.951569851778913e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>9.308223525295034e-08</v>
+        <v>1.858781160990475e-06</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.293987406825181e-05</v>
+        <v>9.687634701549541e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001301736629102379</v>
+        <v>2.731374024733668e-06</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.613669948914321e-06</v>
+        <v>7.743964488327038e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>9.254537872038782e-05</v>
+        <v>1.201139639306348e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>8.122785948216915e-05</v>
+        <v>2.972093398057041e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>5.935966692049988e-05</v>
+        <v>7.302674021048006e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>9.202466753777117e-05</v>
+        <v>1.884814082586672e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001231431670021266</v>
+        <v>2.625177876325324e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.857741492334753e-05</v>
+        <v>1.484590575273614e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0001381824258714914</v>
+        <v>7.69599591876613e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.663464510987978e-05</v>
+        <v>1.203126339532901e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>8.550326310796663e-05</v>
+        <v>2.003450572374277e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0002510281628929079</v>
+        <v>2.43749327637488e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.609128594282083e-05</v>
+        <v>1.521226181466773e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.984604674973525e-05</v>
+        <v>9.402136129210703e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.439287633635104e-07</v>
+        <v>9.288982255384326e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>8.540532871847972e-05</v>
+        <v>5.841021447849926e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.168694820487872e-05</v>
+        <v>1.495819651609054e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>8.810026338323951e-05</v>
+        <v>1.772860377968755e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.29746476886794e-05</v>
+        <v>2.805671783789876e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.298338949913159e-05</v>
+        <v>3.169203864672454e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.886450056394096e-05</v>
+        <v>1.827886990213301e-06</v>
       </c>
       <c r="DU2" t="n">
-        <v>2.609118564578239e-05</v>
+        <v>4.003598405688535e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.688184344558977e-05</v>
+        <v>4.300322871131357e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>8.110845374176279e-05</v>
+        <v>1.284456357097952e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>6.73763788654469e-05</v>
+        <v>7.351048225245904e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.467336814035662e-05</v>
+        <v>4.196844656689791e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>9.208349365508184e-05</v>
+        <v>7.080815066728974e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0001022649739752524</v>
+        <v>4.029973297292599e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.553652691654861e-05</v>
+        <v>1.181070183520205e-05</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.190026473021135e-05</v>
+        <v>6.004175702400971e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.451800380891655e-05</v>
+        <v>1.179560422315262e-05</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0001935044565470889</v>
+        <v>3.908749931724742e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0001375839929096401</v>
+        <v>3.971531441493426e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.794068859657273e-05</v>
+        <v>2.010688149312045e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.636776298459154e-05</v>
+        <v>4.006948302048841e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>3.599873525672592e-05</v>
+        <v>2.102521466440521e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001288912026211619</v>
+        <v>4.695149982580915e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001089875513571315</v>
+        <v>4.516069566307124e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.852077159332111e-05</v>
+        <v>4.736650680570165e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001308863429585472</v>
+        <v>8.942884960561059e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.689608507149387e-05</v>
+        <v>2.545800498410244e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>3.440735963522457e-05</v>
+        <v>1.441867243556771e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.691355469636619e-05</v>
+        <v>3.076875145779923e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.458377821312752e-05</v>
+        <v>1.225044070451986e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.000121220618893858</v>
+        <v>7.561968232039362e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.768529182299972e-05</v>
+        <v>1.173310693047824e-08</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.360117105126847e-05</v>
+        <v>1.529089786345139e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001088357239495963</v>
+        <v>2.343272626603721e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0001037907277350314</v>
+        <v>6.037987986928783e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001953272876562551</v>
+        <v>3.806934046224342e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>4.072644514963031e-05</v>
+        <v>1.143427198257996e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.030931707646232e-05</v>
+        <v>3.883236331603257e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.450447027513292e-06</v>
+        <v>1.836567435020697e-06</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.170223342545796e-05</v>
+        <v>1.16785777208861e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0001430317788617685</v>
+        <v>4.86442922920105e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.463592798245372e-05</v>
+        <v>5.103800958750071e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>5.41133304068353e-05</v>
+        <v>1.50487721839454e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>7.88001052569598e-05</v>
+        <v>1.431133341611712e-06</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.217890257976251e-05</v>
+        <v>3.576625204004813e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001117661813623272</v>
+        <v>5.491689080372453e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>4.587860166793689e-05</v>
+        <v>1.585723657626659e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.058055542875081e-05</v>
+        <v>1.875253815342148e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>9.036067058332264e-05</v>
+        <v>7.331161214096937e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.501604649296496e-05</v>
+        <v>9.215464160661213e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0001286139740841463</v>
+        <v>3.080177066294709e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.276348095620051e-05</v>
+        <v>5.992647857055999e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0001492186129326001</v>
+        <v>4.265732513886178e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0001285542530240491</v>
+        <v>1.085860844796116e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>8.308235555887222e-05</v>
+        <v>2.056591984000988e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001700068678474054</v>
+        <v>1.598801463842392e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>9.936138667399064e-05</v>
+        <v>2.958823188237147e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0003565903462003917</v>
+        <v>2.473657332302537e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001475300377933308</v>
+        <v>4.418377102410886e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>4.317773345974274e-05</v>
+        <v>7.196914339147042e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0001295794354518875</v>
+        <v>3.323527198517695e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0001526749256299809</v>
+        <v>1.819978388084564e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001499372010584921</v>
+        <v>3.21456786878116e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>2.423910336801782e-05</v>
+        <v>2.53384823736269e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.049671770189889e-05</v>
+        <v>2.562426288932329e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>3.568433749023825e-05</v>
+        <v>2.231362304883078e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.515352025511675e-05</v>
+        <v>1.92048378266918e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001037523034028709</v>
+        <v>1.578045339556411e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0002545727184042335</v>
+        <v>1.224633888341486e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>6.483195647888351e-06</v>
+        <v>1.620276816538535e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.000244281516643241</v>
+        <v>9.347805644210894e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001266841136384755</v>
+        <v>9.318232514488045e-06</v>
       </c>
     </row>
     <row r="3">
